--- a/data/Punjab_Hierarchy_v2.xlsx
+++ b/data/Punjab_Hierarchy_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="3" r:id="rId1"/>
@@ -4262,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15425,8 +15425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O744"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="94" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15436,7 +15436,7 @@
     <col min="8" max="8" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -15532,6 +15532,10 @@
       </c>
       <c r="M2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="O2" t="e">
+        <f>VLOOKUP(Districts!D2:H40,8,FALSE)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
